--- a/GATEWAY/A1#111#HEALTHSTRATEGYXX/HealthStrategy/HEasy/49.00.00/report-checklist.xlsx
+++ b/GATEWAY/A1#111#HEALTHSTRATEGYXX/HealthStrategy/HEasy/49.00.00/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthstrategysrl.sharepoint.com/sites/Operations/Shared Documents/Integrazioni/_Documentazione generale/FSE2/Nazionale/Finalizzazione Accreditamento Nazionale/A1#111#HEALTHSTRATEGYXX__HealthStrategy__HEasy__49.00.00/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Bagatta\Downloads\it-fse-accreditamento-health-strategy-main\it-fse-accreditamento-health-strategy-main\GATEWAY\A1#111#HEALTHSTRATEGYXX\HealthStrategy\HEasy\49.00.00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="315" documentId="13_ncr:1_{8A964438-CA3D-403A-94DB-61DD83690133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB0B123D-8F47-46DA-B04F-541F2D5CC095}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD58F28B-361D-4577-BA41-3361A0430E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="338" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="533">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1996,6 +1996,9 @@
   </si>
   <si>
     <t>Errore di sintassi. - ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element '{\"urn:hl7-org:v3\":languageCode}'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected.</t>
+  </si>
+  <si>
+    <t>Si è verificato un timeout. Si prega di riprovare a breve.</t>
   </si>
 </sst>
 </file>
@@ -2912,8 +2915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4062,18 +4065,18 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="J167" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F130" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J192" sqref="J192"/>
+      <selection pane="bottomRight" activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="46.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="47.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="104.85546875" customWidth="1"/>
     <col min="6" max="9" width="33.140625" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
@@ -5212,7 +5215,9 @@
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
       <c r="I31" s="42"/>
-      <c r="J31" s="38"/>
+      <c r="J31" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K31" s="38"/>
       <c r="L31" s="38"/>
       <c r="M31" s="38" t="s">
@@ -5221,8 +5226,12 @@
       <c r="N31" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
+      <c r="O31" s="38" t="s">
+        <v>532</v>
+      </c>
+      <c r="P31" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="Q31" s="38" t="s">
         <v>66</v>
       </c>
@@ -17997,26 +18006,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e52759eb-aa63-4575-955d-0abf9e6fcf9f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="91cd1685-7ea0-4eb7-9574-de7dbd81b8b8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010022E7AE48B492574CABEFAF3718F51D73" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7008baeff8a27f72ad2af446011d87e3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="91cd1685-7ea0-4eb7-9574-de7dbd81b8b8" xmlns:ns3="e52759eb-aa63-4575-955d-0abf9e6fcf9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="350d21349dd8377ed54b1dcb8a90b1bc" ns2:_="" ns3:_="">
     <xsd:import namespace="91cd1685-7ea0-4eb7-9574-de7dbd81b8b8"/>
@@ -18217,26 +18206,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e52759eb-aa63-4575-955d-0abf9e6fcf9f"/>
-    <ds:schemaRef ds:uri="91cd1685-7ea0-4eb7-9574-de7dbd81b8b8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e52759eb-aa63-4575-955d-0abf9e6fcf9f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="91cd1685-7ea0-4eb7-9574-de7dbd81b8b8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64DF73C5-1B60-4BEA-A20B-9E7C7D1EA206}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18255,6 +18245,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e52759eb-aa63-4575-955d-0abf9e6fcf9f"/>
+    <ds:schemaRef ds:uri="91cd1685-7ea0-4eb7-9574-de7dbd81b8b8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111#HEALTHSTRATEGYXX/HealthStrategy/HEasy/49.00.00/report-checklist.xlsx
+++ b/GATEWAY/A1#111#HEALTHSTRATEGYXX/HealthStrategy/HEasy/49.00.00/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Bagatta\Downloads\it-fse-accreditamento-health-strategy-main\it-fse-accreditamento-health-strategy-main\GATEWAY\A1#111#HEALTHSTRATEGYXX\HealthStrategy\HEasy\49.00.00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD58F28B-361D-4577-BA41-3361A0430E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6761B661-729E-4481-849E-CE4EEC2887D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="338" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4065,10 +4065,10 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F130" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="S31" sqref="S31"/>
+      <selection pane="bottomRight" activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18006,6 +18006,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e52759eb-aa63-4575-955d-0abf9e6fcf9f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="91cd1685-7ea0-4eb7-9574-de7dbd81b8b8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010022E7AE48B492574CABEFAF3718F51D73" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7008baeff8a27f72ad2af446011d87e3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="91cd1685-7ea0-4eb7-9574-de7dbd81b8b8" xmlns:ns3="e52759eb-aa63-4575-955d-0abf9e6fcf9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="350d21349dd8377ed54b1dcb8a90b1bc" ns2:_="" ns3:_="">
     <xsd:import namespace="91cd1685-7ea0-4eb7-9574-de7dbd81b8b8"/>
@@ -18206,27 +18226,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e52759eb-aa63-4575-955d-0abf9e6fcf9f"/>
+    <ds:schemaRef ds:uri="91cd1685-7ea0-4eb7-9574-de7dbd81b8b8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e52759eb-aa63-4575-955d-0abf9e6fcf9f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="91cd1685-7ea0-4eb7-9574-de7dbd81b8b8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64DF73C5-1B60-4BEA-A20B-9E7C7D1EA206}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18245,25 +18264,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e52759eb-aa63-4575-955d-0abf9e6fcf9f"/>
-    <ds:schemaRef ds:uri="91cd1685-7ea0-4eb7-9574-de7dbd81b8b8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111#HEALTHSTRATEGYXX/HealthStrategy/HEasy/49.00.00/report-checklist.xlsx
+++ b/GATEWAY/A1#111#HEALTHSTRATEGYXX/HealthStrategy/HEasy/49.00.00/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Bagatta\Downloads\it-fse-accreditamento-health-strategy-main\it-fse-accreditamento-health-strategy-main\GATEWAY\A1#111#HEALTHSTRATEGYXX\HealthStrategy\HEasy\49.00.00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6761B661-729E-4481-849E-CE4EEC2887D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF038C1-F089-49B2-AD1E-B9F465BE6ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="338" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="338" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -1089,9 +1089,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>de0473eeb12451c7607b3e03c3a4db38</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT8_KO</t>
   </si>
   <si>
@@ -1737,204 +1734,15 @@
     <t>FAIL</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.dbbde55be1ac0aea24891017082950d2bf70b054e412757be2d80d9c5dfcc911.980e5b0290^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-10-23T22:09:45.9200985Z</t>
-  </si>
-  <si>
-    <t>2025-10-22T23:32:48.5144207Z</t>
-  </si>
-  <si>
-    <t>a031b419dd8e9a656a75ae77103b3901</t>
-  </si>
-  <si>
-    <t>2025-10-23T21:51:38.3780418Z</t>
-  </si>
-  <si>
-    <t>e5a0e562e0987a0638cbe50346dac899</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.dbbde55be1ac0aea24891017082950d2bf70b054e412757be2d80d9c5dfcc911.80b62832cd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-10-23T21:58:14.0593189Z</t>
-  </si>
-  <si>
-    <t>b14e8bf4b7367aa8504342f7228da2fc</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.dbbde55be1ac0aea24891017082950d2bf70b054e412757be2d80d9c5dfcc911.2d6041a56b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-10-23T22:03:43.8466892Z</t>
-  </si>
-  <si>
-    <t>9aac09bf357638b7b5f8e70397dc04de</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.dbbde55be1ac0aea24891017082950d2bf70b054e412757be2d80d9c5dfcc911.c34b863b2e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-10-24T20:24:03.3053789Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.dbbde55be1ac0aea24891017082950d2bf70b054e412757be2d80d9c5dfcc911.bc232563ed^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>f5a72978775db60e0e9f0e121f4eb99a</t>
-  </si>
-  <si>
-    <t>2025-10-24T20:47:33.4904412Z</t>
-  </si>
-  <si>
-    <t>4c194617b9287d3dcda754d140ad8e62</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.dbbde55be1ac0aea24891017082950d2bf70b054e412757be2d80d9c5dfcc911.b324249378^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>a019586ce7c77756e2d2a8e6469f84cd</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.dbbde55be1ac0aea24891017082950d2bf70b054e412757be2d80d9c5dfcc911.43a8190e91^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-10-27T22:59:19.8722960Z</t>
-  </si>
-  <si>
-    <t>a3c8c0967f7e19c7eeac2f5e480b9f4c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.dbbde55be1ac0aea24891017082950d2bf70b054e412757be2d80d9c5dfcc911.3395ae0155^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-10-27T23:40:11.5822219Z</t>
-  </si>
-  <si>
-    <t>88fb91a97384ae38682ba125cd086aec</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.dbbde55be1ac0aea24891017082950d2bf70b054e412757be2d80d9c5dfcc911.dc5d226e7b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-10-28T13:44:35.8214518Z</t>
-  </si>
-  <si>
-    <t>ba93cff727bca9de799187e642fee009</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.dbbde55be1ac0aea24891017082950d2bf70b054e412757be2d80d9c5dfcc911.83e37d1bf6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-10-28T14:42:08.3109282Z</t>
-  </si>
-  <si>
-    <t>1d3e6d17bbe4aab34af7925c93bc7294</t>
-  </si>
-  <si>
-    <t>2025-10-28T15:13:51.7133003Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.dbbde55be1ac0aea24891017082950d2bf70b054e412757be2d80d9c5dfcc911.9d586b01d7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>afc7c8e5b7cd155ed8b2b3cbd16d51d4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.dbbde55be1ac0aea24891017082950d2bf70b054e412757be2d80d9c5dfcc911.40fcfb671c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-10-28T17:24:26.2290078Z</t>
-  </si>
-  <si>
-    <t>2b75322294f2f29ed74958bc0ac4601f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.dbbde55be1ac0aea24891017082950d2bf70b054e412757be2d80d9c5dfcc911.2a546eec70^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-10-28T16:15:22.5440389Z</t>
-  </si>
-  <si>
-    <t>61354514b4a02855f3b6cfa16675ff4b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.dbbde55be1ac0aea24891017082950d2bf70b054e412757be2d80d9c5dfcc911.ccb84af8f0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-10-28T17:06:39.8982378Z</t>
-  </si>
-  <si>
-    <t>e3f3846f69fd429f8c685b8359daad36</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.dbbde55be1ac0aea24891017082950d2bf70b054e412757be2d80d9c5dfcc911.7f21a9f289^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-10-28T17:49:37.0850654Z</t>
-  </si>
-  <si>
-    <t>2025-10-28T17:55:38.9900357Z</t>
-  </si>
-  <si>
-    <t>2025-10-28T18:12:02.0413556Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.dbbde55be1ac0aea24891017082950d2bf70b054e412757be2d80d9c5dfcc911.e12f98bcd2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>48142e37a02af6780cfe994e063a50b9</t>
-  </si>
-  <si>
-    <t>47f44203b0475c0f596b0baa2b5474b8</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.dbbde55be1ac0aea24891017082950d2bf70b054e412757be2d80d9c5dfcc911.bcd3fd6b17^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>b640c94c07708bbfe83cb3e29861f112</t>
-  </si>
-  <si>
-    <t>2025-10-27T22:18:44.7773675Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.dbbde55be1ac0aea24891017082950d2bf70b054e412757be2d80d9c5dfcc911.4685a64e3d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>E' stata modificata temporaneamente la generazione del WJT in modo da causare questo errore; il campo "action_id" non assumerà mai questo valore e quindi non è un caso che si verificherà in uno scenario di produzione</t>
   </si>
   <si>
     <t>L'utente viene avvisato dell'errore che si è verificato, che rimarrà consultabile nell'applicativo. Contestualmente, l'utente viene invitato, qualora non possa o non sappia risolvere autonomamente l'errore, a contattare il supporto.</t>
   </si>
   <si>
-    <t>2025-10-29T21:44:28.0552482Z</t>
-  </si>
-  <si>
-    <t>79636db82f7383f3d7b52dcf6203622a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.dbbde55be1ac0aea24891017082950d2bf70b054e412757be2d80d9c5dfcc911.7dc943f76b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-10-29T21:35:13.6031006Z</t>
-  </si>
-  <si>
-    <t>ba36823a0e9a3de9a3b08fa70c3bab1a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.dbbde55be1ac0aea24891017082950d2bf70b054e412757be2d80d9c5dfcc911.78ae9aaa2a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Come indicato nel campo Nota, non essendo questo un caso che può succedere, non c'è una coda di errore e non c'è una gestione prevista</t>
   </si>
   <si>
-    <t>2025-10-22T23:34:15.2833253Z</t>
-  </si>
-  <si>
-    <t>8c8f1ccc684f92b8a9670208b3a308f0</t>
-  </si>
-  <si>
     <t>Errore semantico. - [ERRORE-44| Il codice fiscale 'gdupri90r17h501c' cittadino ed operatore deve essere costituito da 16 cifre [A-Z0-9]{16}]</t>
   </si>
   <si>
@@ -1999,6 +1807,198 @@
   </si>
   <si>
     <t>Si è verificato un timeout. Si prega di riprovare a breve.</t>
+  </si>
+  <si>
+    <t>2025-11-04T14:58:38.4867620Z</t>
+  </si>
+  <si>
+    <t>d2e9f1d6ffa7f531a8743325f51196b5</t>
+  </si>
+  <si>
+    <t>2025-11-04T14:58:51.3745560Z</t>
+  </si>
+  <si>
+    <t>e7f5b415172582c14553d8ff82e6b937</t>
+  </si>
+  <si>
+    <t>ed632abe30dd73151d6be0c3c22b1661</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.a530cf1710af5a5233d261bd3121deb16c0d402b1e284c7e655da283a4668a1c.46246997e6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-11-04T14:54:57.0753145Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.a530cf1710af5a5233d261bd3121deb16c0d402b1e284c7e655da283a4668a1c.5892e3aa3f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>422a8483ebf52a8244896e1fda10869e</t>
+  </si>
+  <si>
+    <t>2025-11-04T14:55:11.8336129Z</t>
+  </si>
+  <si>
+    <t>2025-11-04T14:55:25.2283189Z</t>
+  </si>
+  <si>
+    <t>f975c8b942d4a2ba6a10656c6b329928</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.a530cf1710af5a5233d261bd3121deb16c0d402b1e284c7e655da283a4668a1c.7a1e79a78f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>922ab4fd1407cd6909a8ed0ce22019f8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.a530cf1710af5a5233d261bd3121deb16c0d402b1e284c7e655da283a4668a1c.598da417f6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-11-04T14:55:40.1807911Z</t>
+  </si>
+  <si>
+    <t>2025-11-04T14:55:53.7174199Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.a530cf1710af5a5233d261bd3121deb16c0d402b1e284c7e655da283a4668a1c.5690437579^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>db5e14e943110ec6ca5f9b1faf96edd3</t>
+  </si>
+  <si>
+    <t>8a554eabc5d03acc365a08fa2af67c33</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.a530cf1710af5a5233d261bd3121deb16c0d402b1e284c7e655da283a4668a1c.7d7d94c51a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-11-04T14:56:06.6537144Z</t>
+  </si>
+  <si>
+    <t>2025-11-04T14:56:19.6893278Z</t>
+  </si>
+  <si>
+    <t>f425bf6c57369c9fb66fb2a99b625197</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.a530cf1710af5a5233d261bd3121deb16c0d402b1e284c7e655da283a4668a1c.68470eeb55^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-11-04T14:56:34.8932443Z</t>
+  </si>
+  <si>
+    <t>d0055be843095e8d79917eb863209ed0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.a530cf1710af5a5233d261bd3121deb16c0d402b1e284c7e655da283a4668a1c.f7ad763def^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>798e541f9b4a40a04dbf7f6f8ca0fa29</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.a530cf1710af5a5233d261bd3121deb16c0d402b1e284c7e655da283a4668a1c.8345bd193c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-11-04T14:56:50.1490758Z</t>
+  </si>
+  <si>
+    <t>34b661da9d7fd45e67949eb65936685c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.a530cf1710af5a5233d261bd3121deb16c0d402b1e284c7e655da283a4668a1c.f16e0bb117^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-11-04T14:57:09.0373427Z</t>
+  </si>
+  <si>
+    <t>6b31b66061f60f991f4be08a02d7ca13</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.a530cf1710af5a5233d261bd3121deb16c0d402b1e284c7e655da283a4668a1c.9e194709a9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-11-04T14:57:23.2592454Z</t>
+  </si>
+  <si>
+    <t>8774c594a2208df212e29a9c56994e64</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.a530cf1710af5a5233d261bd3121deb16c0d402b1e284c7e655da283a4668a1c.9005de7a7c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-11-04T15:05:21.9566757Z</t>
+  </si>
+  <si>
+    <t>20b3819a158a6628aa4cef7423ad6314</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.a530cf1710af5a5233d261bd3121deb16c0d402b1e284c7e655da283a4668a1c.1ea1be6aac^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-11-04T15:05:35.7966025Z</t>
+  </si>
+  <si>
+    <t>b496c5ff508cdd8d1393da6930701036</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.a530cf1710af5a5233d261bd3121deb16c0d402b1e284c7e655da283a4668a1c.83540de260^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-11-04T14:58:06.9036281Z</t>
+  </si>
+  <si>
+    <t>854f8384c1b0fa23dd6bc4837ff881ba</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.a530cf1710af5a5233d261bd3121deb16c0d402b1e284c7e655da283a4668a1c.ac618b11cc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-11-04T14:58:22.6491888Z</t>
+  </si>
+  <si>
+    <t>ee9f15363a360bbe2b47b60ef408fe4c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.a530cf1710af5a5233d261bd3121deb16c0d402b1e284c7e655da283a4668a1c.3cbe72b04e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-11-04T14:10:50.3018576Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.a530cf1710af5a5233d261bd3121deb16c0d402b1e284c7e655da283a4668a1c.01b2ce83d2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-11-04T14:11:42.4714717Z</t>
+  </si>
+  <si>
+    <t>bb83cf78d05117d45ebc5a5c2628dd84</t>
+  </si>
+  <si>
+    <t>2025-11-04T14:59:04.5818283Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.a530cf1710af5a5233d261bd3121deb16c0d402b1e284c7e655da283a4668a1c.ed86155f32^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>60fc13fba752ec4db806a526c407c36c</t>
+  </si>
+  <si>
+    <t>eb8469c2b3742539330966936c0abf42</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.a530cf1710af5a5233d261bd3121deb16c0d402b1e284c7e655da283a4668a1c.a0beb23b44^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-11-04T14:59:16.8314591Z</t>
+  </si>
+  <si>
+    <t>2025-11-04T14:59:30.7720066Z</t>
+  </si>
+  <si>
+    <t>b3aa48aa281ccae7838213c7fb714191</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.a530cf1710af5a5233d261bd3121deb16c0d402b1e284c7e655da283a4668a1c.ec15d28652^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4065,10 +4065,10 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E185" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="M31" sqref="M31"/>
+      <selection pane="bottomRight" activeCell="E185" sqref="E185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4078,7 +4078,9 @@
     <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="104.85546875" customWidth="1"/>
-    <col min="6" max="9" width="33.140625" customWidth="1"/>
+    <col min="6" max="7" width="33.140625" customWidth="1"/>
+    <col min="8" max="8" width="43.5703125" customWidth="1"/>
+    <col min="9" max="9" width="33.140625" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
     <col min="11" max="14" width="36.42578125" customWidth="1"/>
     <col min="15" max="15" width="46.140625" customWidth="1"/>
@@ -4560,13 +4562,13 @@
         <v>53</v>
       </c>
       <c r="F15" s="37">
-        <v>45952</v>
+        <v>45965</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>509</v>
+        <v>469</v>
       </c>
       <c r="H15" s="37" t="s">
-        <v>510</v>
+        <v>470</v>
       </c>
       <c r="I15" s="42" t="s">
         <v>63</v>
@@ -4595,7 +4597,7 @@
         <v>64</v>
       </c>
       <c r="S15" s="38" t="s">
-        <v>508</v>
+        <v>446</v>
       </c>
       <c r="T15" s="38"/>
       <c r="U15" s="39"/>
@@ -4882,13 +4884,13 @@
         <v>75</v>
       </c>
       <c r="F23" s="37">
-        <v>45952</v>
+        <v>45965</v>
       </c>
       <c r="G23" s="37" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="H23" s="37" t="s">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="I23" s="42" t="s">
         <v>63</v>
@@ -4905,7 +4907,7 @@
         <v>64</v>
       </c>
       <c r="O23" s="38" t="s">
-        <v>520</v>
+        <v>456</v>
       </c>
       <c r="P23" s="38" t="s">
         <v>64</v>
@@ -4917,12 +4919,12 @@
         <v>64</v>
       </c>
       <c r="S23" s="38" t="s">
-        <v>508</v>
+        <v>446</v>
       </c>
       <c r="T23" s="38"/>
       <c r="U23" s="39"/>
       <c r="V23" s="40" t="s">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="W23" s="38" t="s">
         <v>54</v>
@@ -5227,7 +5229,7 @@
         <v>64</v>
       </c>
       <c r="O31" s="38" t="s">
-        <v>532</v>
+        <v>468</v>
       </c>
       <c r="P31" s="38" t="s">
         <v>64</v>
@@ -5239,7 +5241,7 @@
         <v>64</v>
       </c>
       <c r="S31" s="38" t="s">
-        <v>525</v>
+        <v>461</v>
       </c>
       <c r="T31" s="38"/>
       <c r="U31" s="39" t="s">
@@ -8381,16 +8383,16 @@
         <v>255</v>
       </c>
       <c r="F116" s="37">
-        <v>45953</v>
+        <v>45965</v>
       </c>
       <c r="G116" s="37" t="s">
-        <v>446</v>
+        <v>475</v>
       </c>
       <c r="H116" s="37" t="s">
-        <v>256</v>
+        <v>473</v>
       </c>
       <c r="I116" s="42" t="s">
-        <v>445</v>
+        <v>474</v>
       </c>
       <c r="J116" s="38" t="s">
         <v>64</v>
@@ -8404,7 +8406,7 @@
         <v>64</v>
       </c>
       <c r="O116" s="38" t="s">
-        <v>511</v>
+        <v>447</v>
       </c>
       <c r="P116" s="38" t="s">
         <v>64</v>
@@ -8416,7 +8418,7 @@
         <v>64</v>
       </c>
       <c r="S116" s="38" t="s">
-        <v>501</v>
+        <v>445</v>
       </c>
       <c r="T116" s="38"/>
       <c r="U116" s="39"/>
@@ -8436,22 +8438,22 @@
         <v>61</v>
       </c>
       <c r="D117" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="E117" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="E117" s="43" t="s">
-        <v>258</v>
-      </c>
       <c r="F117" s="37">
-        <v>45953</v>
+        <v>45965</v>
       </c>
       <c r="G117" s="37" t="s">
-        <v>449</v>
+        <v>478</v>
       </c>
       <c r="H117" s="37" t="s">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="I117" s="42" t="s">
-        <v>451</v>
+        <v>476</v>
       </c>
       <c r="J117" s="38" t="s">
         <v>64</v>
@@ -8465,7 +8467,7 @@
         <v>64</v>
       </c>
       <c r="O117" s="38" t="s">
-        <v>512</v>
+        <v>448</v>
       </c>
       <c r="P117" s="38" t="s">
         <v>64</v>
@@ -8477,12 +8479,12 @@
         <v>64</v>
       </c>
       <c r="S117" s="38" t="s">
-        <v>501</v>
+        <v>445</v>
       </c>
       <c r="T117" s="38"/>
       <c r="U117" s="39"/>
       <c r="V117" s="40" t="s">
-        <v>526</v>
+        <v>462</v>
       </c>
       <c r="W117" s="38" t="s">
         <v>54</v>
@@ -8499,22 +8501,22 @@
         <v>61</v>
       </c>
       <c r="D118" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="E118" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="E118" s="43" t="s">
-        <v>260</v>
-      </c>
       <c r="F118" s="37">
-        <v>45953</v>
+        <v>45965</v>
       </c>
       <c r="G118" s="37" t="s">
-        <v>452</v>
+        <v>479</v>
       </c>
       <c r="H118" s="37" t="s">
-        <v>453</v>
+        <v>480</v>
       </c>
       <c r="I118" s="42" t="s">
-        <v>454</v>
+        <v>481</v>
       </c>
       <c r="J118" s="38" t="s">
         <v>64</v>
@@ -8528,7 +8530,7 @@
         <v>64</v>
       </c>
       <c r="O118" s="38" t="s">
-        <v>513</v>
+        <v>449</v>
       </c>
       <c r="P118" s="38" t="s">
         <v>64</v>
@@ -8540,12 +8542,12 @@
         <v>64</v>
       </c>
       <c r="S118" s="38" t="s">
-        <v>501</v>
+        <v>445</v>
       </c>
       <c r="T118" s="38"/>
       <c r="U118" s="39"/>
       <c r="V118" s="40" t="s">
-        <v>526</v>
+        <v>462</v>
       </c>
       <c r="W118" s="38" t="s">
         <v>54</v>
@@ -8562,22 +8564,22 @@
         <v>61</v>
       </c>
       <c r="D119" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="E119" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="E119" s="43" t="s">
-        <v>262</v>
-      </c>
       <c r="F119" s="37">
-        <v>45953</v>
+        <v>45965</v>
       </c>
       <c r="G119" s="37" t="s">
-        <v>455</v>
+        <v>484</v>
       </c>
       <c r="H119" s="37" t="s">
-        <v>456</v>
+        <v>482</v>
       </c>
       <c r="I119" s="42" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="J119" s="38" t="s">
         <v>64</v>
@@ -8591,7 +8593,7 @@
         <v>64</v>
       </c>
       <c r="O119" s="38" t="s">
-        <v>521</v>
+        <v>457</v>
       </c>
       <c r="P119" s="38" t="s">
         <v>64</v>
@@ -8603,12 +8605,12 @@
         <v>64</v>
       </c>
       <c r="S119" s="38" t="s">
-        <v>501</v>
+        <v>445</v>
       </c>
       <c r="T119" s="38"/>
       <c r="U119" s="39"/>
       <c r="V119" s="40" t="s">
-        <v>526</v>
+        <v>462</v>
       </c>
       <c r="W119" s="38" t="s">
         <v>54</v>
@@ -8625,22 +8627,22 @@
         <v>61</v>
       </c>
       <c r="D120" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="E120" s="43" t="s">
         <v>263</v>
       </c>
-      <c r="E120" s="43" t="s">
-        <v>264</v>
-      </c>
       <c r="F120" s="37">
-        <v>45957</v>
+        <v>45965</v>
       </c>
       <c r="G120" s="37" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="H120" s="37" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="I120" s="42" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="J120" s="38" t="s">
         <v>64</v>
@@ -8654,7 +8656,7 @@
         <v>64</v>
       </c>
       <c r="O120" s="38" t="s">
-        <v>527</v>
+        <v>463</v>
       </c>
       <c r="P120" s="38" t="s">
         <v>64</v>
@@ -8666,12 +8668,12 @@
         <v>64</v>
       </c>
       <c r="S120" s="38" t="s">
-        <v>501</v>
+        <v>445</v>
       </c>
       <c r="T120" s="38"/>
       <c r="U120" s="39"/>
       <c r="V120" s="40" t="s">
-        <v>526</v>
+        <v>462</v>
       </c>
       <c r="W120" s="38" t="s">
         <v>54</v>
@@ -8688,22 +8690,22 @@
         <v>61</v>
       </c>
       <c r="D121" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="E121" s="43" t="s">
         <v>265</v>
       </c>
-      <c r="E121" s="43" t="s">
-        <v>266</v>
-      </c>
       <c r="F121" s="37">
-        <v>45954</v>
+        <v>45965</v>
       </c>
       <c r="G121" s="37" t="s">
-        <v>458</v>
+        <v>490</v>
       </c>
       <c r="H121" s="37" t="s">
-        <v>460</v>
+        <v>488</v>
       </c>
       <c r="I121" s="42" t="s">
-        <v>459</v>
+        <v>489</v>
       </c>
       <c r="J121" s="38" t="s">
         <v>64</v>
@@ -8717,7 +8719,7 @@
         <v>64</v>
       </c>
       <c r="O121" s="38" t="s">
-        <v>528</v>
+        <v>464</v>
       </c>
       <c r="P121" s="38" t="s">
         <v>64</v>
@@ -8729,12 +8731,12 @@
         <v>64</v>
       </c>
       <c r="S121" s="38" t="s">
-        <v>501</v>
+        <v>445</v>
       </c>
       <c r="T121" s="38"/>
       <c r="U121" s="39"/>
       <c r="V121" s="40" t="s">
-        <v>526</v>
+        <v>462</v>
       </c>
       <c r="W121" s="38" t="s">
         <v>54</v>
@@ -8751,22 +8753,22 @@
         <v>61</v>
       </c>
       <c r="D122" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="E122" s="43" t="s">
         <v>267</v>
       </c>
-      <c r="E122" s="43" t="s">
-        <v>268</v>
-      </c>
       <c r="F122" s="37">
-        <v>45954</v>
+        <v>45965</v>
       </c>
       <c r="G122" s="37" t="s">
-        <v>461</v>
+        <v>491</v>
       </c>
       <c r="H122" s="37" t="s">
-        <v>462</v>
+        <v>492</v>
       </c>
       <c r="I122" s="42" t="s">
-        <v>463</v>
+        <v>493</v>
       </c>
       <c r="J122" s="38" t="s">
         <v>64</v>
@@ -8780,7 +8782,7 @@
         <v>64</v>
       </c>
       <c r="O122" s="38" t="s">
-        <v>514</v>
+        <v>450</v>
       </c>
       <c r="P122" s="38" t="s">
         <v>64</v>
@@ -8792,12 +8794,12 @@
         <v>64</v>
       </c>
       <c r="S122" s="38" t="s">
-        <v>501</v>
+        <v>445</v>
       </c>
       <c r="T122" s="38"/>
       <c r="U122" s="39"/>
       <c r="V122" s="40" t="s">
-        <v>526</v>
+        <v>462</v>
       </c>
       <c r="W122" s="38" t="s">
         <v>54</v>
@@ -8814,22 +8816,22 @@
         <v>61</v>
       </c>
       <c r="D123" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="E123" s="43" t="s">
         <v>269</v>
       </c>
-      <c r="E123" s="43" t="s">
-        <v>270</v>
-      </c>
       <c r="F123" s="37">
-        <v>45957</v>
+        <v>45965</v>
       </c>
       <c r="G123" s="37" t="s">
-        <v>466</v>
+        <v>494</v>
       </c>
       <c r="H123" s="37" t="s">
-        <v>464</v>
+        <v>495</v>
       </c>
       <c r="I123" s="42" t="s">
-        <v>465</v>
+        <v>496</v>
       </c>
       <c r="J123" s="38" t="s">
         <v>64</v>
@@ -8843,7 +8845,7 @@
         <v>64</v>
       </c>
       <c r="O123" s="38" t="s">
-        <v>515</v>
+        <v>451</v>
       </c>
       <c r="P123" s="38" t="s">
         <v>64</v>
@@ -8855,12 +8857,12 @@
         <v>64</v>
       </c>
       <c r="S123" s="38" t="s">
-        <v>501</v>
+        <v>445</v>
       </c>
       <c r="T123" s="38"/>
       <c r="U123" s="39"/>
       <c r="V123" s="40" t="s">
-        <v>526</v>
+        <v>462</v>
       </c>
       <c r="W123" s="38" t="s">
         <v>54</v>
@@ -8877,22 +8879,22 @@
         <v>61</v>
       </c>
       <c r="D124" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="E124" s="43" t="s">
         <v>271</v>
       </c>
-      <c r="E124" s="43" t="s">
-        <v>272</v>
-      </c>
       <c r="F124" s="37">
-        <v>45957</v>
+        <v>45965</v>
       </c>
       <c r="G124" s="37" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="H124" s="37" t="s">
-        <v>467</v>
+        <v>497</v>
       </c>
       <c r="I124" s="42" t="s">
-        <v>468</v>
+        <v>498</v>
       </c>
       <c r="J124" s="38" t="s">
         <v>64</v>
@@ -8906,7 +8908,7 @@
         <v>64</v>
       </c>
       <c r="O124" s="38" t="s">
-        <v>516</v>
+        <v>452</v>
       </c>
       <c r="P124" s="38" t="s">
         <v>64</v>
@@ -8918,12 +8920,12 @@
         <v>64</v>
       </c>
       <c r="S124" s="38" t="s">
-        <v>501</v>
+        <v>445</v>
       </c>
       <c r="T124" s="38"/>
       <c r="U124" s="39"/>
       <c r="V124" s="40" t="s">
-        <v>526</v>
+        <v>462</v>
       </c>
       <c r="W124" s="38" t="s">
         <v>54</v>
@@ -8940,22 +8942,22 @@
         <v>61</v>
       </c>
       <c r="D125" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="E125" s="43" t="s">
         <v>273</v>
       </c>
-      <c r="E125" s="43" t="s">
-        <v>274</v>
-      </c>
       <c r="F125" s="37">
-        <v>45958</v>
+        <v>45965</v>
       </c>
       <c r="G125" s="37" t="s">
-        <v>472</v>
+        <v>502</v>
       </c>
       <c r="H125" s="37" t="s">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="I125" s="42" t="s">
-        <v>471</v>
+        <v>501</v>
       </c>
       <c r="J125" s="38" t="s">
         <v>64</v>
@@ -8969,7 +8971,7 @@
         <v>64</v>
       </c>
       <c r="O125" s="38" t="s">
-        <v>529</v>
+        <v>465</v>
       </c>
       <c r="P125" s="38" t="s">
         <v>64</v>
@@ -8981,12 +8983,12 @@
         <v>64</v>
       </c>
       <c r="S125" s="38" t="s">
-        <v>501</v>
+        <v>445</v>
       </c>
       <c r="T125" s="38"/>
       <c r="U125" s="39"/>
       <c r="V125" s="40" t="s">
-        <v>526</v>
+        <v>462</v>
       </c>
       <c r="W125" s="38" t="s">
         <v>54</v>
@@ -9003,22 +9005,22 @@
         <v>61</v>
       </c>
       <c r="D126" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="E126" s="43" t="s">
         <v>275</v>
       </c>
-      <c r="E126" s="43" t="s">
-        <v>276</v>
-      </c>
       <c r="F126" s="37">
-        <v>45958</v>
+        <v>45965</v>
       </c>
       <c r="G126" s="37" t="s">
-        <v>475</v>
+        <v>505</v>
       </c>
       <c r="H126" s="37" t="s">
-        <v>473</v>
+        <v>503</v>
       </c>
       <c r="I126" s="42" t="s">
-        <v>474</v>
+        <v>504</v>
       </c>
       <c r="J126" s="38" t="s">
         <v>64</v>
@@ -9032,7 +9034,7 @@
         <v>64</v>
       </c>
       <c r="O126" s="38" t="s">
-        <v>517</v>
+        <v>453</v>
       </c>
       <c r="P126" s="38" t="s">
         <v>64</v>
@@ -9044,12 +9046,12 @@
         <v>64</v>
       </c>
       <c r="S126" s="38" t="s">
-        <v>501</v>
+        <v>445</v>
       </c>
       <c r="T126" s="38"/>
       <c r="U126" s="39"/>
       <c r="V126" s="40" t="s">
-        <v>526</v>
+        <v>462</v>
       </c>
       <c r="W126" s="38" t="s">
         <v>54</v>
@@ -9066,22 +9068,22 @@
         <v>61</v>
       </c>
       <c r="D127" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="E127" s="43" t="s">
         <v>277</v>
       </c>
-      <c r="E127" s="43" t="s">
-        <v>278</v>
-      </c>
       <c r="F127" s="37">
-        <v>45958</v>
+        <v>45965</v>
       </c>
       <c r="G127" s="37" t="s">
-        <v>477</v>
+        <v>508</v>
       </c>
       <c r="H127" s="37" t="s">
-        <v>476</v>
+        <v>506</v>
       </c>
       <c r="I127" s="42" t="s">
-        <v>478</v>
+        <v>507</v>
       </c>
       <c r="J127" s="38" t="s">
         <v>64</v>
@@ -9095,7 +9097,7 @@
         <v>64</v>
       </c>
       <c r="O127" s="38" t="s">
-        <v>518</v>
+        <v>454</v>
       </c>
       <c r="P127" s="38" t="s">
         <v>64</v>
@@ -9107,12 +9109,12 @@
         <v>64</v>
       </c>
       <c r="S127" s="38" t="s">
-        <v>501</v>
+        <v>445</v>
       </c>
       <c r="T127" s="38"/>
       <c r="U127" s="39"/>
       <c r="V127" s="40" t="s">
-        <v>526</v>
+        <v>462</v>
       </c>
       <c r="W127" s="38" t="s">
         <v>54</v>
@@ -9129,22 +9131,22 @@
         <v>61</v>
       </c>
       <c r="D128" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="E128" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="E128" s="43" t="s">
-        <v>280</v>
-      </c>
       <c r="F128" s="37">
-        <v>45958</v>
+        <v>45965</v>
       </c>
       <c r="G128" s="37" t="s">
-        <v>481</v>
+        <v>511</v>
       </c>
       <c r="H128" s="37" t="s">
-        <v>479</v>
+        <v>509</v>
       </c>
       <c r="I128" s="42" t="s">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="J128" s="38" t="s">
         <v>64</v>
@@ -9158,7 +9160,7 @@
         <v>64</v>
       </c>
       <c r="O128" s="38" t="s">
-        <v>519</v>
+        <v>455</v>
       </c>
       <c r="P128" s="38" t="s">
         <v>64</v>
@@ -9170,12 +9172,12 @@
         <v>64</v>
       </c>
       <c r="S128" s="38" t="s">
-        <v>501</v>
+        <v>445</v>
       </c>
       <c r="T128" s="38"/>
       <c r="U128" s="39"/>
       <c r="V128" s="40" t="s">
-        <v>526</v>
+        <v>462</v>
       </c>
       <c r="W128" s="38" t="s">
         <v>54</v>
@@ -9192,22 +9194,22 @@
         <v>61</v>
       </c>
       <c r="D129" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="E129" s="43" t="s">
         <v>281</v>
       </c>
-      <c r="E129" s="43" t="s">
-        <v>282</v>
-      </c>
       <c r="F129" s="37">
-        <v>45958</v>
+        <v>45965</v>
       </c>
       <c r="G129" s="37" t="s">
-        <v>484</v>
+        <v>514</v>
       </c>
       <c r="H129" s="37" t="s">
-        <v>482</v>
+        <v>512</v>
       </c>
       <c r="I129" s="42" t="s">
-        <v>483</v>
+        <v>513</v>
       </c>
       <c r="J129" s="38" t="s">
         <v>64</v>
@@ -9221,7 +9223,7 @@
         <v>64</v>
       </c>
       <c r="O129" s="38" t="s">
-        <v>522</v>
+        <v>458</v>
       </c>
       <c r="P129" s="38" t="s">
         <v>64</v>
@@ -9233,12 +9235,12 @@
         <v>64</v>
       </c>
       <c r="S129" s="38" t="s">
-        <v>501</v>
+        <v>445</v>
       </c>
       <c r="T129" s="38"/>
       <c r="U129" s="39"/>
       <c r="V129" s="40" t="s">
-        <v>526</v>
+        <v>462</v>
       </c>
       <c r="W129" s="38" t="s">
         <v>54</v>
@@ -9255,22 +9257,22 @@
         <v>61</v>
       </c>
       <c r="D130" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="E130" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="E130" s="43" t="s">
-        <v>284</v>
-      </c>
       <c r="F130" s="37">
-        <v>45958</v>
+        <v>45965</v>
       </c>
       <c r="G130" s="37" t="s">
-        <v>487</v>
+        <v>517</v>
       </c>
       <c r="H130" s="37" t="s">
-        <v>485</v>
+        <v>515</v>
       </c>
       <c r="I130" s="42" t="s">
-        <v>486</v>
+        <v>516</v>
       </c>
       <c r="J130" s="38" t="s">
         <v>64</v>
@@ -9284,7 +9286,7 @@
         <v>64</v>
       </c>
       <c r="O130" s="38" t="s">
-        <v>530</v>
+        <v>466</v>
       </c>
       <c r="P130" s="38" t="s">
         <v>64</v>
@@ -9296,12 +9298,12 @@
         <v>64</v>
       </c>
       <c r="S130" s="38" t="s">
-        <v>501</v>
+        <v>445</v>
       </c>
       <c r="T130" s="38"/>
       <c r="U130" s="39"/>
       <c r="V130" s="40" t="s">
-        <v>526</v>
+        <v>462</v>
       </c>
       <c r="W130" s="38" t="s">
         <v>54</v>
@@ -9318,10 +9320,10 @@
         <v>57</v>
       </c>
       <c r="D131" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="E131" s="43" t="s">
         <v>285</v>
-      </c>
-      <c r="E131" s="43" t="s">
-        <v>286</v>
       </c>
       <c r="F131" s="37"/>
       <c r="G131" s="37"/>
@@ -9355,10 +9357,10 @@
         <v>57</v>
       </c>
       <c r="D132" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="E132" s="43" t="s">
         <v>287</v>
-      </c>
-      <c r="E132" s="43" t="s">
-        <v>288</v>
       </c>
       <c r="F132" s="37"/>
       <c r="G132" s="37"/>
@@ -9392,10 +9394,10 @@
         <v>57</v>
       </c>
       <c r="D133" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="E133" s="43" t="s">
         <v>289</v>
-      </c>
-      <c r="E133" s="43" t="s">
-        <v>290</v>
       </c>
       <c r="F133" s="37"/>
       <c r="G133" s="37"/>
@@ -9429,10 +9431,10 @@
         <v>57</v>
       </c>
       <c r="D134" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="E134" s="43" t="s">
         <v>291</v>
-      </c>
-      <c r="E134" s="43" t="s">
-        <v>292</v>
       </c>
       <c r="F134" s="37"/>
       <c r="G134" s="37"/>
@@ -9466,10 +9468,10 @@
         <v>57</v>
       </c>
       <c r="D135" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="E135" s="43" t="s">
         <v>293</v>
-      </c>
-      <c r="E135" s="43" t="s">
-        <v>294</v>
       </c>
       <c r="F135" s="37"/>
       <c r="G135" s="37"/>
@@ -9503,10 +9505,10 @@
         <v>57</v>
       </c>
       <c r="D136" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="E136" s="43" t="s">
         <v>295</v>
-      </c>
-      <c r="E136" s="43" t="s">
-        <v>296</v>
       </c>
       <c r="F136" s="37"/>
       <c r="G136" s="37"/>
@@ -9540,10 +9542,10 @@
         <v>57</v>
       </c>
       <c r="D137" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="E137" s="43" t="s">
         <v>297</v>
-      </c>
-      <c r="E137" s="43" t="s">
-        <v>298</v>
       </c>
       <c r="F137" s="37"/>
       <c r="G137" s="37"/>
@@ -9577,10 +9579,10 @@
         <v>57</v>
       </c>
       <c r="D138" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="E138" s="43" t="s">
         <v>299</v>
-      </c>
-      <c r="E138" s="43" t="s">
-        <v>300</v>
       </c>
       <c r="F138" s="37"/>
       <c r="G138" s="37"/>
@@ -9614,10 +9616,10 @@
         <v>57</v>
       </c>
       <c r="D139" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="E139" s="43" t="s">
         <v>301</v>
-      </c>
-      <c r="E139" s="43" t="s">
-        <v>302</v>
       </c>
       <c r="F139" s="37"/>
       <c r="G139" s="37"/>
@@ -9651,10 +9653,10 @@
         <v>57</v>
       </c>
       <c r="D140" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="E140" s="43" t="s">
         <v>303</v>
-      </c>
-      <c r="E140" s="43" t="s">
-        <v>304</v>
       </c>
       <c r="F140" s="37"/>
       <c r="G140" s="37"/>
@@ -9688,10 +9690,10 @@
         <v>57</v>
       </c>
       <c r="D141" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="E141" s="43" t="s">
         <v>305</v>
-      </c>
-      <c r="E141" s="43" t="s">
-        <v>306</v>
       </c>
       <c r="F141" s="37"/>
       <c r="G141" s="37"/>
@@ -9725,10 +9727,10 @@
         <v>57</v>
       </c>
       <c r="D142" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="E142" s="43" t="s">
         <v>307</v>
-      </c>
-      <c r="E142" s="43" t="s">
-        <v>308</v>
       </c>
       <c r="F142" s="37"/>
       <c r="G142" s="37"/>
@@ -9762,10 +9764,10 @@
         <v>57</v>
       </c>
       <c r="D143" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="E143" s="43" t="s">
         <v>309</v>
-      </c>
-      <c r="E143" s="43" t="s">
-        <v>310</v>
       </c>
       <c r="F143" s="37"/>
       <c r="G143" s="37"/>
@@ -9799,10 +9801,10 @@
         <v>57</v>
       </c>
       <c r="D144" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="E144" s="43" t="s">
         <v>311</v>
-      </c>
-      <c r="E144" s="43" t="s">
-        <v>312</v>
       </c>
       <c r="F144" s="37"/>
       <c r="G144" s="37"/>
@@ -9836,10 +9838,10 @@
         <v>57</v>
       </c>
       <c r="D145" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="E145" s="43" t="s">
         <v>313</v>
-      </c>
-      <c r="E145" s="43" t="s">
-        <v>314</v>
       </c>
       <c r="F145" s="37"/>
       <c r="G145" s="37"/>
@@ -9873,10 +9875,10 @@
         <v>48</v>
       </c>
       <c r="D146" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="E146" s="43" t="s">
         <v>315</v>
-      </c>
-      <c r="E146" s="43" t="s">
-        <v>316</v>
       </c>
       <c r="F146" s="37"/>
       <c r="G146" s="37"/>
@@ -9910,10 +9912,10 @@
         <v>48</v>
       </c>
       <c r="D147" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="E147" s="43" t="s">
         <v>317</v>
-      </c>
-      <c r="E147" s="43" t="s">
-        <v>318</v>
       </c>
       <c r="F147" s="37"/>
       <c r="G147" s="37"/>
@@ -9944,13 +9946,13 @@
         <v>47</v>
       </c>
       <c r="C148" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="D148" s="35" t="s">
         <v>319</v>
       </c>
-      <c r="D148" s="35" t="s">
+      <c r="E148" s="43" t="s">
         <v>320</v>
-      </c>
-      <c r="E148" s="43" t="s">
-        <v>321</v>
       </c>
       <c r="F148" s="37"/>
       <c r="G148" s="37"/>
@@ -9981,13 +9983,13 @@
         <v>47</v>
       </c>
       <c r="C149" s="41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D149" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="E149" s="43" t="s">
         <v>322</v>
-      </c>
-      <c r="E149" s="43" t="s">
-        <v>323</v>
       </c>
       <c r="F149" s="37"/>
       <c r="G149" s="37"/>
@@ -10018,13 +10020,13 @@
         <v>47</v>
       </c>
       <c r="C150" s="41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D150" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="E150" s="43" t="s">
         <v>324</v>
-      </c>
-      <c r="E150" s="43" t="s">
-        <v>325</v>
       </c>
       <c r="F150" s="37"/>
       <c r="G150" s="37"/>
@@ -10055,10 +10057,10 @@
         <v>47</v>
       </c>
       <c r="C151" s="41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D151" s="35" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E151" s="43" t="s">
         <v>53</v>
@@ -10092,10 +10094,10 @@
         <v>47</v>
       </c>
       <c r="C152" s="41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D152" s="35" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E152" s="43" t="s">
         <v>75</v>
@@ -10129,13 +10131,13 @@
         <v>47</v>
       </c>
       <c r="C153" s="41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D153" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="E153" s="43" t="s">
         <v>328</v>
-      </c>
-      <c r="E153" s="43" t="s">
-        <v>329</v>
       </c>
       <c r="F153" s="37"/>
       <c r="G153" s="37"/>
@@ -10166,13 +10168,13 @@
         <v>47</v>
       </c>
       <c r="C154" s="41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D154" s="35" t="s">
+        <v>329</v>
+      </c>
+      <c r="E154" s="43" t="s">
         <v>330</v>
-      </c>
-      <c r="E154" s="43" t="s">
-        <v>331</v>
       </c>
       <c r="F154" s="37"/>
       <c r="G154" s="37"/>
@@ -10203,13 +10205,13 @@
         <v>47</v>
       </c>
       <c r="C155" s="41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D155" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="E155" s="43" t="s">
         <v>332</v>
-      </c>
-      <c r="E155" s="43" t="s">
-        <v>333</v>
       </c>
       <c r="F155" s="37"/>
       <c r="G155" s="37"/>
@@ -10240,13 +10242,13 @@
         <v>47</v>
       </c>
       <c r="C156" s="41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D156" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="E156" s="43" t="s">
         <v>334</v>
-      </c>
-      <c r="E156" s="43" t="s">
-        <v>335</v>
       </c>
       <c r="F156" s="37"/>
       <c r="G156" s="37"/>
@@ -10277,13 +10279,13 @@
         <v>47</v>
       </c>
       <c r="C157" s="41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D157" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="E157" s="43" t="s">
         <v>336</v>
-      </c>
-      <c r="E157" s="43" t="s">
-        <v>337</v>
       </c>
       <c r="F157" s="37"/>
       <c r="G157" s="37"/>
@@ -10314,13 +10316,13 @@
         <v>47</v>
       </c>
       <c r="C158" s="41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D158" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="E158" s="43" t="s">
         <v>338</v>
-      </c>
-      <c r="E158" s="43" t="s">
-        <v>339</v>
       </c>
       <c r="F158" s="37"/>
       <c r="G158" s="37"/>
@@ -10351,13 +10353,13 @@
         <v>47</v>
       </c>
       <c r="C159" s="41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D159" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="E159" s="43" t="s">
         <v>340</v>
-      </c>
-      <c r="E159" s="43" t="s">
-        <v>341</v>
       </c>
       <c r="F159" s="37"/>
       <c r="G159" s="37"/>
@@ -10388,13 +10390,13 @@
         <v>47</v>
       </c>
       <c r="C160" s="41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D160" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="E160" s="43" t="s">
         <v>342</v>
-      </c>
-      <c r="E160" s="43" t="s">
-        <v>343</v>
       </c>
       <c r="F160" s="37"/>
       <c r="G160" s="37"/>
@@ -10425,13 +10427,13 @@
         <v>47</v>
       </c>
       <c r="C161" s="41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D161" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="E161" s="43" t="s">
         <v>344</v>
-      </c>
-      <c r="E161" s="43" t="s">
-        <v>345</v>
       </c>
       <c r="F161" s="37"/>
       <c r="G161" s="37"/>
@@ -10462,13 +10464,13 @@
         <v>47</v>
       </c>
       <c r="C162" s="41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D162" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="E162" s="43" t="s">
         <v>346</v>
-      </c>
-      <c r="E162" s="43" t="s">
-        <v>347</v>
       </c>
       <c r="F162" s="37"/>
       <c r="G162" s="37"/>
@@ -10499,13 +10501,13 @@
         <v>47</v>
       </c>
       <c r="C163" s="41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D163" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="E163" s="43" t="s">
         <v>348</v>
-      </c>
-      <c r="E163" s="43" t="s">
-        <v>349</v>
       </c>
       <c r="F163" s="37"/>
       <c r="G163" s="37"/>
@@ -10539,10 +10541,10 @@
         <v>57</v>
       </c>
       <c r="D164" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="E164" s="43" t="s">
         <v>350</v>
-      </c>
-      <c r="E164" s="43" t="s">
-        <v>351</v>
       </c>
       <c r="F164" s="37"/>
       <c r="G164" s="37"/>
@@ -10576,10 +10578,10 @@
         <v>57</v>
       </c>
       <c r="D165" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="E165" s="43" t="s">
         <v>352</v>
-      </c>
-      <c r="E165" s="43" t="s">
-        <v>353</v>
       </c>
       <c r="F165" s="37"/>
       <c r="G165" s="37"/>
@@ -10613,22 +10615,22 @@
         <v>61</v>
       </c>
       <c r="D166" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="E166" s="43" t="s">
         <v>354</v>
       </c>
-      <c r="E166" s="43" t="s">
-        <v>355</v>
-      </c>
       <c r="F166" s="37">
-        <v>45959</v>
+        <v>45965</v>
       </c>
       <c r="G166" s="37" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="H166" s="37" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="I166" s="42" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="J166" s="38" t="s">
         <v>64</v>
@@ -10660,22 +10662,22 @@
         <v>61</v>
       </c>
       <c r="D167" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="E167" s="43" t="s">
         <v>356</v>
       </c>
-      <c r="E167" s="43" t="s">
-        <v>357</v>
-      </c>
       <c r="F167" s="37">
-        <v>45959</v>
+        <v>45965</v>
       </c>
       <c r="G167" s="37" t="s">
-        <v>502</v>
+        <v>522</v>
       </c>
       <c r="H167" s="37" t="s">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="I167" s="42" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="J167" s="38" t="s">
         <v>64</v>
@@ -10707,10 +10709,10 @@
         <v>55</v>
       </c>
       <c r="D168" s="35" t="s">
+        <v>357</v>
+      </c>
+      <c r="E168" s="43" t="s">
         <v>358</v>
-      </c>
-      <c r="E168" s="43" t="s">
-        <v>359</v>
       </c>
       <c r="F168" s="37"/>
       <c r="G168" s="37"/>
@@ -10744,10 +10746,10 @@
         <v>55</v>
       </c>
       <c r="D169" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="E169" s="43" t="s">
         <v>360</v>
-      </c>
-      <c r="E169" s="43" t="s">
-        <v>361</v>
       </c>
       <c r="F169" s="37"/>
       <c r="G169" s="37"/>
@@ -10781,10 +10783,10 @@
         <v>48</v>
       </c>
       <c r="D170" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="E170" s="43" t="s">
         <v>362</v>
-      </c>
-      <c r="E170" s="43" t="s">
-        <v>363</v>
       </c>
       <c r="F170" s="37"/>
       <c r="G170" s="37"/>
@@ -10818,10 +10820,10 @@
         <v>72</v>
       </c>
       <c r="D171" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="E171" s="43" t="s">
         <v>364</v>
-      </c>
-      <c r="E171" s="43" t="s">
-        <v>365</v>
       </c>
       <c r="F171" s="37"/>
       <c r="G171" s="37"/>
@@ -10855,10 +10857,10 @@
         <v>72</v>
       </c>
       <c r="D172" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="E172" s="43" t="s">
         <v>366</v>
-      </c>
-      <c r="E172" s="43" t="s">
-        <v>367</v>
       </c>
       <c r="F172" s="37"/>
       <c r="G172" s="37"/>
@@ -10892,10 +10894,10 @@
         <v>70</v>
       </c>
       <c r="D173" s="35" t="s">
+        <v>367</v>
+      </c>
+      <c r="E173" s="43" t="s">
         <v>368</v>
-      </c>
-      <c r="E173" s="43" t="s">
-        <v>369</v>
       </c>
       <c r="F173" s="37"/>
       <c r="G173" s="37"/>
@@ -10929,10 +10931,10 @@
         <v>70</v>
       </c>
       <c r="D174" s="35" t="s">
+        <v>369</v>
+      </c>
+      <c r="E174" s="43" t="s">
         <v>370</v>
-      </c>
-      <c r="E174" s="43" t="s">
-        <v>371</v>
       </c>
       <c r="F174" s="37"/>
       <c r="G174" s="37"/>
@@ -10966,10 +10968,10 @@
         <v>68</v>
       </c>
       <c r="D175" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="E175" s="43" t="s">
         <v>372</v>
-      </c>
-      <c r="E175" s="43" t="s">
-        <v>373</v>
       </c>
       <c r="F175" s="37"/>
       <c r="G175" s="37"/>
@@ -11003,10 +11005,10 @@
         <v>68</v>
       </c>
       <c r="D176" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="E176" s="43" t="s">
         <v>374</v>
-      </c>
-      <c r="E176" s="43" t="s">
-        <v>375</v>
       </c>
       <c r="F176" s="37"/>
       <c r="G176" s="37"/>
@@ -11037,13 +11039,13 @@
         <v>47</v>
       </c>
       <c r="C177" s="41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D177" s="35" t="s">
+        <v>375</v>
+      </c>
+      <c r="E177" s="43" t="s">
         <v>376</v>
-      </c>
-      <c r="E177" s="43" t="s">
-        <v>377</v>
       </c>
       <c r="F177" s="37"/>
       <c r="G177" s="37"/>
@@ -11077,22 +11079,22 @@
         <v>61</v>
       </c>
       <c r="D178" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="E178" s="43" t="s">
         <v>378</v>
       </c>
-      <c r="E178" s="43" t="s">
-        <v>379</v>
-      </c>
       <c r="F178" s="44">
-        <v>45958</v>
+        <v>45965</v>
       </c>
       <c r="G178" s="38" t="s">
-        <v>490</v>
+        <v>524</v>
       </c>
       <c r="H178" s="38" t="s">
-        <v>488</v>
+        <v>526</v>
       </c>
       <c r="I178" s="38" t="s">
-        <v>489</v>
+        <v>525</v>
       </c>
       <c r="J178" s="38" t="s">
         <v>64</v>
@@ -11106,7 +11108,7 @@
         <v>64</v>
       </c>
       <c r="O178" s="38" t="s">
-        <v>523</v>
+        <v>459</v>
       </c>
       <c r="P178" s="38" t="s">
         <v>64</v>
@@ -11118,12 +11120,12 @@
         <v>64</v>
       </c>
       <c r="S178" s="38" t="s">
-        <v>501</v>
+        <v>445</v>
       </c>
       <c r="T178" s="38"/>
       <c r="U178" s="35"/>
       <c r="V178" s="40" t="s">
-        <v>526</v>
+        <v>462</v>
       </c>
       <c r="W178" s="35" t="s">
         <v>54</v>
@@ -11140,10 +11142,10 @@
         <v>59</v>
       </c>
       <c r="D179" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="E179" s="43" t="s">
         <v>380</v>
-      </c>
-      <c r="E179" s="43" t="s">
-        <v>381</v>
       </c>
       <c r="F179" s="35"/>
       <c r="G179" s="35"/>
@@ -11177,10 +11179,10 @@
         <v>72</v>
       </c>
       <c r="D180" s="35" t="s">
+        <v>381</v>
+      </c>
+      <c r="E180" s="43" t="s">
         <v>382</v>
-      </c>
-      <c r="E180" s="43" t="s">
-        <v>383</v>
       </c>
       <c r="F180" s="35"/>
       <c r="G180" s="35"/>
@@ -11214,10 +11216,10 @@
         <v>68</v>
       </c>
       <c r="D181" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="E181" s="43" t="s">
         <v>384</v>
-      </c>
-      <c r="E181" s="43" t="s">
-        <v>385</v>
       </c>
       <c r="F181" s="35"/>
       <c r="G181" s="35"/>
@@ -11251,10 +11253,10 @@
         <v>70</v>
       </c>
       <c r="D182" s="35" t="s">
+        <v>385</v>
+      </c>
+      <c r="E182" s="43" t="s">
         <v>386</v>
-      </c>
-      <c r="E182" s="43" t="s">
-        <v>387</v>
       </c>
       <c r="F182" s="35"/>
       <c r="G182" s="35"/>
@@ -11288,10 +11290,10 @@
         <v>48</v>
       </c>
       <c r="D183" s="35" t="s">
+        <v>387</v>
+      </c>
+      <c r="E183" s="43" t="s">
         <v>388</v>
-      </c>
-      <c r="E183" s="43" t="s">
-        <v>389</v>
       </c>
       <c r="F183" s="35"/>
       <c r="G183" s="35"/>
@@ -11325,10 +11327,10 @@
         <v>55</v>
       </c>
       <c r="D184" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="E184" s="43" t="s">
         <v>390</v>
-      </c>
-      <c r="E184" s="43" t="s">
-        <v>391</v>
       </c>
       <c r="F184" s="35"/>
       <c r="G184" s="35"/>
@@ -11362,22 +11364,22 @@
         <v>61</v>
       </c>
       <c r="D185" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="E185" s="43" t="s">
         <v>392</v>
       </c>
-      <c r="E185" s="43" t="s">
-        <v>393</v>
-      </c>
       <c r="F185" s="45">
-        <v>45958</v>
+        <v>45965</v>
       </c>
       <c r="G185" s="38" t="s">
-        <v>491</v>
+        <v>529</v>
       </c>
       <c r="H185" s="38" t="s">
-        <v>495</v>
+        <v>527</v>
       </c>
       <c r="I185" s="38" t="s">
-        <v>496</v>
+        <v>528</v>
       </c>
       <c r="J185" s="38" t="s">
         <v>64</v>
@@ -11391,7 +11393,7 @@
         <v>64</v>
       </c>
       <c r="O185" s="38" t="s">
-        <v>531</v>
+        <v>467</v>
       </c>
       <c r="P185" s="38" t="s">
         <v>64</v>
@@ -11403,12 +11405,12 @@
         <v>64</v>
       </c>
       <c r="S185" s="38" t="s">
-        <v>501</v>
+        <v>445</v>
       </c>
       <c r="T185" s="38"/>
       <c r="U185" s="35"/>
       <c r="V185" s="40" t="s">
-        <v>526</v>
+        <v>462</v>
       </c>
       <c r="W185" s="35" t="s">
         <v>54</v>
@@ -11425,10 +11427,10 @@
         <v>57</v>
       </c>
       <c r="D186" s="35" t="s">
+        <v>393</v>
+      </c>
+      <c r="E186" s="43" t="s">
         <v>394</v>
-      </c>
-      <c r="E186" s="43" t="s">
-        <v>395</v>
       </c>
       <c r="F186" s="35"/>
       <c r="G186" s="35"/>
@@ -11459,13 +11461,13 @@
         <v>47</v>
       </c>
       <c r="C187" s="41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D187" s="35" t="s">
+        <v>395</v>
+      </c>
+      <c r="E187" s="43" t="s">
         <v>396</v>
-      </c>
-      <c r="E187" s="43" t="s">
-        <v>397</v>
       </c>
       <c r="F187" s="35"/>
       <c r="G187" s="35"/>
@@ -11499,10 +11501,10 @@
         <v>59</v>
       </c>
       <c r="D188" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="E188" s="43" t="s">
         <v>398</v>
-      </c>
-      <c r="E188" s="43" t="s">
-        <v>399</v>
       </c>
       <c r="F188" s="37"/>
       <c r="G188" s="37"/>
@@ -11536,10 +11538,10 @@
         <v>59</v>
       </c>
       <c r="D189" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="E189" s="43" t="s">
         <v>400</v>
-      </c>
-      <c r="E189" s="43" t="s">
-        <v>401</v>
       </c>
       <c r="F189" s="37"/>
       <c r="G189" s="37"/>
@@ -11573,10 +11575,10 @@
         <v>48</v>
       </c>
       <c r="D190" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="E190" s="43" t="s">
         <v>402</v>
-      </c>
-      <c r="E190" s="43" t="s">
-        <v>403</v>
       </c>
       <c r="F190" s="37"/>
       <c r="G190" s="37"/>
@@ -11610,10 +11612,10 @@
         <v>59</v>
       </c>
       <c r="D191" s="35" t="s">
+        <v>403</v>
+      </c>
+      <c r="E191" s="43" t="s">
         <v>404</v>
-      </c>
-      <c r="E191" s="43" t="s">
-        <v>405</v>
       </c>
       <c r="F191" s="37"/>
       <c r="G191" s="37"/>
@@ -11647,22 +11649,22 @@
         <v>61</v>
       </c>
       <c r="D192" s="35" t="s">
+        <v>405</v>
+      </c>
+      <c r="E192" s="43" t="s">
         <v>406</v>
       </c>
-      <c r="E192" s="43" t="s">
-        <v>407</v>
-      </c>
       <c r="F192" s="37">
-        <v>45958</v>
+        <v>45965</v>
       </c>
       <c r="G192" s="37" t="s">
-        <v>492</v>
+        <v>530</v>
       </c>
       <c r="H192" s="37" t="s">
-        <v>494</v>
+        <v>531</v>
       </c>
       <c r="I192" s="42" t="s">
-        <v>493</v>
+        <v>532</v>
       </c>
       <c r="J192" s="38" t="s">
         <v>64</v>
@@ -11676,7 +11678,7 @@
         <v>64</v>
       </c>
       <c r="O192" s="38" t="s">
-        <v>524</v>
+        <v>460</v>
       </c>
       <c r="P192" s="38" t="s">
         <v>64</v>
@@ -11688,12 +11690,12 @@
         <v>64</v>
       </c>
       <c r="S192" s="38" t="s">
-        <v>501</v>
+        <v>445</v>
       </c>
       <c r="T192" s="38"/>
       <c r="U192" s="39"/>
       <c r="V192" s="40" t="s">
-        <v>526</v>
+        <v>462</v>
       </c>
       <c r="W192" s="38" t="s">
         <v>54</v>
@@ -15775,42 +15777,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -15840,22 +15842,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="F1" s="15" t="s">
         <v>418</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>419</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15863,13 +15865,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="30" t="s">
         <v>422</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15877,13 +15879,13 @@
         <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>424</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15891,13 +15893,13 @@
         <v>59</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>426</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15905,13 +15907,13 @@
         <v>68</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>428</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15919,13 +15921,13 @@
         <v>70</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="D6" s="31" t="s">
         <v>430</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -15933,13 +15935,13 @@
         <v>72</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="D7" s="31" t="s">
         <v>432</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -15947,13 +15949,13 @@
         <v>61</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="D8" s="31" t="s">
         <v>434</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -15961,41 +15963,41 @@
         <v>57</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="D9" s="31" t="s">
         <v>436</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>438</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="30" t="s">
         <v>439</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="D11" s="31" t="s">
         <v>441</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16981,7 +16983,7 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>64</v>
@@ -16989,7 +16991,7 @@
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>66</v>
@@ -18006,26 +18008,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e52759eb-aa63-4575-955d-0abf9e6fcf9f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="91cd1685-7ea0-4eb7-9574-de7dbd81b8b8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010022E7AE48B492574CABEFAF3718F51D73" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7008baeff8a27f72ad2af446011d87e3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="91cd1685-7ea0-4eb7-9574-de7dbd81b8b8" xmlns:ns3="e52759eb-aa63-4575-955d-0abf9e6fcf9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="350d21349dd8377ed54b1dcb8a90b1bc" ns2:_="" ns3:_="">
     <xsd:import namespace="91cd1685-7ea0-4eb7-9574-de7dbd81b8b8"/>
@@ -18226,26 +18208,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e52759eb-aa63-4575-955d-0abf9e6fcf9f"/>
-    <ds:schemaRef ds:uri="91cd1685-7ea0-4eb7-9574-de7dbd81b8b8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e52759eb-aa63-4575-955d-0abf9e6fcf9f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="91cd1685-7ea0-4eb7-9574-de7dbd81b8b8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64DF73C5-1B60-4BEA-A20B-9E7C7D1EA206}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18264,6 +18247,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e52759eb-aa63-4575-955d-0abf9e6fcf9f"/>
+    <ds:schemaRef ds:uri="91cd1685-7ea0-4eb7-9574-de7dbd81b8b8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>
